--- a/application/text.xlsx
+++ b/application/text.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,37 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Total Dil.</t>
+          <t xml:space="preserve">Total Dil.75  As  [ He ] </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78  Se  [ H2 ] </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111  Cd  [ No Gas ] </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>123 Sb [He]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>202 Hg [He]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>208 Pb [He]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>238 U[He]</t>
         </is>
       </c>
     </row>
@@ -479,7 +509,7 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44960.72082175926</v>
+        <v>44986.63087962963</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -489,32 +519,32 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>172485-001 soil</t>
+          <t>172825-001 mj</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12.7398776697435</v>
+        <v>0.200930085521709</v>
       </c>
       <c r="J3" t="n">
-        <v>1.55141813304217</v>
+        <v>0.143809559670236</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83356190957647</v>
+        <v>0.0776912324046526</v>
       </c>
       <c r="L3" t="n">
-        <v>2.64068732594517</v>
+        <v>0.279311926845177</v>
       </c>
       <c r="M3" t="n">
-        <v>2.61316474933963</v>
+        <v>0.27009419956562</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18303883877668</v>
+        <v>0.871322076033481</v>
       </c>
       <c r="O3" t="n">
-        <v>125.720030894304</v>
+        <v>0.570880732613173</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38110730319529</v>
+        <v>0.0458785230319971</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +557,7 @@
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44960.72344907407</v>
+        <v>44986.63347222222</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -537,32 +567,32 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>172485-001 soil</t>
+          <t>172825-002 mj</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>14.9953481495801</v>
+        <v>0.252740266643881</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95068934347041</v>
+        <v>0.133927477204405</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18483957729286</v>
+        <v>0.221661701782478</v>
       </c>
       <c r="L4" t="n">
-        <v>3.60189437005451</v>
+        <v>0.270261481391397</v>
       </c>
       <c r="M4" t="n">
-        <v>3.66054138567374</v>
+        <v>0.25191619869287</v>
       </c>
       <c r="N4" t="n">
-        <v>3.02147047327347</v>
+        <v>0.503366443813867</v>
       </c>
       <c r="O4" t="n">
-        <v>138.453345756669</v>
+        <v>1.7133332127068</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44762240691384</v>
+        <v>0.0583476127027474</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +605,7 @@
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44960.72603009259</v>
+        <v>44986.63611111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -585,32 +615,32 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>172483-001 mj</t>
+          <t>172825-003 mj</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.677526641018553</v>
+        <v>0.233797097081389</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0747754255741671</v>
+        <v>0.320325501164247</v>
       </c>
       <c r="K5" t="n">
-        <v>0.179095559155378</v>
+        <v>0.174518884155589</v>
       </c>
       <c r="L5" t="n">
-        <v>0.237978550117716</v>
+        <v>0.35269681481013</v>
       </c>
       <c r="M5" t="n">
-        <v>0.23977070192293</v>
+        <v>0.300325109336947</v>
       </c>
       <c r="N5" t="n">
-        <v>0.175721787946904</v>
+        <v>0.425621774988746</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41856640143755</v>
+        <v>3.1138141792529</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0142185644174798</v>
+        <v>0.069286436753243</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +653,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44960.72865740741</v>
+        <v>44986.63869212963</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -633,32 +663,32 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>172483-002 mj</t>
+          <t>172825-004 mj</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.178387114406359</v>
+        <v>0.283503078787713</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06785486605251841</v>
+        <v>0.157859070417045</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06295730499944439</v>
+        <v>0.0974310414978955</v>
       </c>
       <c r="L6" t="n">
-        <v>0.180719415272658</v>
+        <v>0.285642871033762</v>
       </c>
       <c r="M6" t="n">
-        <v>0.179432123551223</v>
+        <v>0.299998417273245</v>
       </c>
       <c r="N6" t="n">
-        <v>0.115219861821823</v>
+        <v>0.393365924304351</v>
       </c>
       <c r="O6" t="n">
-        <v>0.517469419737887</v>
+        <v>2.40110535961664</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00814360183327829</v>
+        <v>0.0523937193852466</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +701,7 @@
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44960.73125</v>
+        <v>44986.64131944445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -681,32 +711,32 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>172483-003 mj</t>
+          <t>172825-005 mj</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.371439593448023</v>
+        <v>0.182978365695717</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0521272054267847</v>
+        <v>0.09945044034342659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08789995262226701</v>
+        <v>0.157417436235759</v>
       </c>
       <c r="L7" t="n">
-        <v>0.200430471040518</v>
+        <v>0.183970153290508</v>
       </c>
       <c r="M7" t="n">
-        <v>0.172833366510555</v>
+        <v>0.199260000599878</v>
       </c>
       <c r="N7" t="n">
-        <v>0.118057701185229</v>
+        <v>0.313770948794113</v>
       </c>
       <c r="O7" t="n">
-        <v>0.459916067502717</v>
+        <v>0.5344224480627769</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00555953005333494</v>
+        <v>0.0246224217731496</v>
       </c>
     </row>
     <row r="8">
@@ -719,7 +749,7 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44960.73387731481</v>
+        <v>44986.64391203703</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -729,32 +759,32 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>172483-004 mj</t>
+          <t>172825-006 mj</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.0450464400654525</v>
+        <v>0.301520777267488</v>
       </c>
       <c r="J8" t="n">
-        <v>0.026761015887726</v>
+        <v>0.161473389531251</v>
       </c>
       <c r="K8" t="n">
-        <v>0.197978146663732</v>
+        <v>0.133736973292959</v>
       </c>
       <c r="L8" t="n">
-        <v>0.199890747177137</v>
+        <v>0.351273851513719</v>
       </c>
       <c r="M8" t="n">
-        <v>0.181993913963501</v>
+        <v>0.342974449371216</v>
       </c>
       <c r="N8" t="n">
-        <v>0.100661279700995</v>
+        <v>0.32542715335125</v>
       </c>
       <c r="O8" t="n">
-        <v>1.20650808860612</v>
+        <v>3.14977412722472</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00996237540680415</v>
+        <v>0.0508587404347929</v>
       </c>
     </row>
     <row r="9">
@@ -767,7 +797,7 @@
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44960.73646990741</v>
+        <v>44986.64652777778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -777,32 +807,32 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>172483-005 mj</t>
+          <t>172825-007 mj</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.334825307583566</v>
+        <v>0.296159322388545</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0726906583914031</v>
+        <v>0.200362220248487</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448355784545227</v>
+        <v>0.0533117069775178</v>
       </c>
       <c r="L9" t="n">
-        <v>0.15774852140467</v>
+        <v>0.232285141108417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.161981002011082</v>
+        <v>0.245178113120021</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0806909172399964</v>
+        <v>0.307873211513369</v>
       </c>
       <c r="O9" t="n">
-        <v>0.617339223648071</v>
+        <v>0.823997076749804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0072833898890919</v>
+        <v>0.0341634463300826</v>
       </c>
     </row>
     <row r="10">
@@ -815,7 +845,7 @@
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44960.73909722222</v>
+        <v>44986.64910879629</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -825,32 +855,32 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>172482-001 mj</t>
+          <t>172842-001</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.7814217976504</v>
+        <v>0.943130375304772</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0488995075090752</v>
+        <v>0.0160165458729857</v>
       </c>
       <c r="K10" t="n">
-        <v>1.04862327095078</v>
+        <v>0.000825183519045891</v>
       </c>
       <c r="L10" t="n">
-        <v>0.17825170940952</v>
+        <v>0.0689517940378044</v>
       </c>
       <c r="M10" t="n">
-        <v>0.219032603631483</v>
+        <v>0.0726818680604763</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0900848310464701</v>
+        <v>0.0104965803771365</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27997578479182</v>
+        <v>1.70000901013926</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00648965417301172</v>
+        <v>2.48763536034661e-05</v>
       </c>
     </row>
     <row r="11">
@@ -863,7 +893,7 @@
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44960.74166666667</v>
+        <v>44986.65174768519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -873,32 +903,34 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>172482-002 mj</t>
+          <t>172842-002</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.15302101606982</v>
+        <v>0.0276331478246735</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0450280070967459</v>
+        <v>0.0073229032776931</v>
       </c>
       <c r="K11" t="n">
-        <v>0.818071044613219</v>
+        <v>0.00250514152351378</v>
       </c>
       <c r="L11" t="n">
-        <v>0.14116255640498</v>
+        <v>0.07448469720824059</v>
       </c>
       <c r="M11" t="n">
-        <v>0.118062109675622</v>
+        <v>0.07455158186216131</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0593233188755597</v>
+        <v>0.00586816751499241</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21020690579877</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.00556589566065314</v>
+        <v>0.85357558069133</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -911,7 +943,7 @@
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44960.74429398148</v>
+        <v>44986.65431712963</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -921,32 +953,36 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>172482-003 mj</t>
+          <t>172844-001</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2.4500083281988</v>
+        <v>0.0346181694168883</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0329772306656992</v>
+        <v>0.0199122774587464</v>
       </c>
       <c r="K12" t="n">
-        <v>1.02489287013798</v>
+        <v>0.00124423506965663</v>
       </c>
       <c r="L12" t="n">
-        <v>0.267882992417254</v>
+        <v>0.0848863851154643</v>
       </c>
       <c r="M12" t="n">
-        <v>0.239901035641584</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.138750342800707</v>
+        <v>0.0838597527742771</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O12" t="n">
-        <v>2.64675103930525</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0143991174065856</v>
+        <v>0.782593176247251</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -959,7 +995,7 @@
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44960.75201388889</v>
+        <v>44986.66210648148</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -969,34 +1005,32 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>172503-001</t>
+          <t>172846-001</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.0218692370704457</v>
+        <v>0.29758872276164</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0103156141822397</v>
+        <v>0.0271468978540567</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00255495949533288</v>
+        <v>0.0469782784289383</v>
       </c>
       <c r="L13" t="n">
-        <v>0.161194445862249</v>
+        <v>0.096936912005127</v>
       </c>
       <c r="M13" t="n">
-        <v>0.165880586021751</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
+        <v>0.0971147297896315</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00742545357758171</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48074849703071</v>
+        <v>2.38144933775643</v>
       </c>
       <c r="P13" t="n">
-        <v>0.00333844790937689</v>
+        <v>0.0231557850594239</v>
       </c>
     </row>
     <row r="14">
@@ -1009,7 +1043,7 @@
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44960.75461805556</v>
+        <v>44986.6646875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1019,34 +1053,32 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>172502-001</t>
+          <t>172849-001</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>23.0487343603293</v>
+        <v>0.0884461569038804</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0195740050539189</v>
+        <v>0.0157339370060206</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0139044218926452</v>
+        <v>0.000400273284019275</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0550483792049514</v>
+        <v>0.0732216545857685</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0481935672403216</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
+        <v>0.08319678931018119</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.14936714484667</v>
       </c>
       <c r="O14" t="n">
-        <v>0.828121839276983</v>
+        <v>0.150021281950758</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00187982461472218</v>
+        <v>0.063441951104122</v>
       </c>
     </row>
     <row r="15">
@@ -1059,7 +1091,7 @@
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44960.7571875</v>
+        <v>44986.66731481482</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1069,23 +1101,23 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>172499-001</t>
+          <t>172861-001 paper</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.00794164736059849</v>
+        <v>0.342314563983436</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007122232017264971</v>
+        <v>0.0674722071485296</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0032595727691508</v>
+        <v>0.257235171837561</v>
       </c>
       <c r="L15" t="n">
-        <v>0.121444205944219</v>
+        <v>0.288044621941546</v>
       </c>
       <c r="M15" t="n">
-        <v>0.133493661117465</v>
+        <v>0.349753569247322</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1093,10 +1125,10 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>0.352093331451175</v>
+        <v>1.74450051551383</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00105799724765252</v>
+        <v>0.0802222871795519</v>
       </c>
     </row>
     <row r="16">
@@ -1109,7 +1141,7 @@
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44960.75982638889</v>
+        <v>44986.66990740741</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1119,23 +1151,23 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>172505-001</t>
+          <t>172861-002 paper</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.92340252189969</v>
+        <v>0.409613161885315</v>
       </c>
       <c r="J16" t="n">
-        <v>0.10929672459334</v>
+        <v>0.044642196614106</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00298582611716368</v>
+        <v>0.173140622660023</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0866379386219151</v>
+        <v>0.361047304831938</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0869064362260956</v>
+        <v>0.38742131028582</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1143,10 +1175,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>0.667871850138298</v>
+        <v>3.81924831061963</v>
       </c>
       <c r="P16" t="n">
-        <v>0.598950329351201</v>
+        <v>1.11676829319584</v>
       </c>
     </row>
     <row r="17">
@@ -1159,7 +1191,7 @@
         </is>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44960.7624074074</v>
+        <v>44986.67253472222</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1169,32 +1201,32 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1725257-001</t>
+          <t>172861-003 paper</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.102833700845537</v>
+        <v>0.569536129971391</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0153319912892467</v>
+        <v>0.0127322390412744</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0100128191243551</v>
+        <v>0.263844703346268</v>
       </c>
       <c r="L17" t="n">
-        <v>0.082468075370876</v>
+        <v>0.459429054410949</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0872408791125136</v>
+        <v>0.504132596241443</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00921866846190351</v>
+        <v>0.209764280996553</v>
       </c>
       <c r="O17" t="n">
-        <v>0.629163523049354</v>
+        <v>3.28172441780352</v>
       </c>
       <c r="P17" t="n">
-        <v>0.00448857179985965</v>
+        <v>1.27593970146026</v>
       </c>
     </row>
     <row r="18">
@@ -1207,7 +1239,7 @@
         </is>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44960.7650462963</v>
+        <v>44986.67511574074</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1217,23 +1249,25 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>172521-001</t>
+          <t>172861-004 paper</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.211847831470139</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.00841772468390249</v>
+        <v>0.494511239102967</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>0.00262101035089773</v>
+        <v>0.260927173475178</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0962484358556715</v>
+        <v>0.464116762381767</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09267583771882031</v>
+        <v>0.49622231246037</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1241,10 +1275,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>0.192843020508699</v>
+        <v>3.13353797407515</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0355807345702084</v>
+        <v>0.590064525913038</v>
       </c>
     </row>
     <row r="19">
@@ -1257,7 +1291,7 @@
         </is>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44960.76763888889</v>
+        <v>44986.67775462963</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1267,34 +1301,32 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>172521-003</t>
+          <t>172861-005 paper</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.487051905699432</v>
+        <v>0.527501436072616</v>
       </c>
       <c r="J19" t="n">
-        <v>0.026067888417505</v>
+        <v>0.0401353838388202</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00482089740886863</v>
+        <v>0.222252593840106</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0644122486288316</v>
+        <v>0.325847260754948</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06359521166756379</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
+        <v>0.331649363846794</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0138767531991335</v>
       </c>
       <c r="O19" t="n">
-        <v>0.411493261724088</v>
+        <v>3.87319408849615</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0252268911692932</v>
+        <v>1.23636286447959</v>
       </c>
     </row>
     <row r="20">
@@ -1307,7 +1339,7 @@
         </is>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44960.77025462963</v>
+        <v>44986.68032407408</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1317,23 +1349,25 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>172510-001</t>
+          <t>172853-001 As III</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.233500706985963</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.07603252909221971</v>
+        <v>0.9746267533626231</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>0.00294217256119645</v>
+        <v>0.00149707349254867</v>
       </c>
       <c r="L20" t="n">
-        <v>0.102838661981809</v>
+        <v>0.00946148610801968</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09297805103297439</v>
+        <v>0.0257998928768329</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1341,10 +1375,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>0.466944085537755</v>
+        <v>0.181515673462562</v>
       </c>
       <c r="P20" t="n">
-        <v>0.021531948482157</v>
+        <v>0.00251190228218382</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1391,7 @@
         </is>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44960.77283564815</v>
+        <v>44986.68295138889</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1367,32 +1401,32 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>172509-001</t>
+          <t>172853-001 DMA</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5.47324670837968</v>
+        <v>0.278347884659439</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09241319196986821</v>
+        <v>0.00116161825702482</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00409045642885816</v>
+        <v>0.0202010641082405</v>
       </c>
       <c r="L21" t="n">
-        <v>0.306666110282038</v>
+        <v>0.234824348215028</v>
       </c>
       <c r="M21" t="n">
-        <v>0.319900561821247</v>
+        <v>0.227840368758215</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00525170349801002</v>
+        <v>0.00499040411024193</v>
       </c>
       <c r="O21" t="n">
-        <v>0.381339324910444</v>
+        <v>0.895282430762242</v>
       </c>
       <c r="P21" t="n">
-        <v>0.914690835278526</v>
+        <v>0.0113771280916465</v>
       </c>
     </row>
     <row r="22">
@@ -1405,7 +1439,7 @@
         </is>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44960.77545138889</v>
+        <v>44986.68553240741</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1415,32 +1449,34 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>172510-002</t>
+          <t>172853-001 MA</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.148430102989453</v>
+        <v>0.669254958659231</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0489809619603633</v>
+        <v>0.00303755849990248</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00297582889651913</v>
+        <v>0.00506883299117087</v>
       </c>
       <c r="L22" t="n">
-        <v>0.107034257178976</v>
+        <v>0.0369558212691626</v>
       </c>
       <c r="M22" t="n">
-        <v>0.103264707968583</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.00109251606832169</v>
+        <v>0.0443443909326705</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O22" t="n">
-        <v>0.48472382262361</v>
+        <v>0.107142593794463</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00751100106162734</v>
+        <v>0.00436849333500616</v>
       </c>
     </row>
     <row r="23">
@@ -1453,7 +1489,7 @@
         </is>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44960.78319444445</v>
+        <v>44986.69334490741</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1463,32 +1499,32 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>172506-001</t>
+          <t>172853-001 As V</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.340242207768377</v>
+        <v>2.95450346674635</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07782652633010349</v>
+        <v>0.00702727972029843</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00696236156183772</v>
+        <v>0.0756367503919106</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09565545799370891</v>
+        <v>0.311459709837914</v>
       </c>
       <c r="M23" t="n">
-        <v>0.092520852683336</v>
+        <v>0.289232042791475</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0101399789724417</v>
+        <v>0.0532043324519753</v>
       </c>
       <c r="O23" t="n">
-        <v>2.64597795660488</v>
+        <v>0.102995038918407</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0358217981877736</v>
+        <v>0.009063892531312749</v>
       </c>
     </row>
     <row r="24">
@@ -1501,7 +1537,7 @@
         </is>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44960.78582175926</v>
+        <v>44986.69592592592</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1511,23 +1547,23 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>172449-001</t>
+          <t>172853-001 T.As</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.969705532265554</v>
+        <v>5.29912052700832</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1896433224484</v>
+        <v>0.000318403940420534</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00193075977819002</v>
+        <v>0.00545116389232332</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0626974780843382</v>
+        <v>0.383554460200503</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0596492826868532</v>
+        <v>0.393216272498983</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1535,10 +1571,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>0.248844451732042</v>
+        <v>0.306303879325204</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0044244582787143</v>
+        <v>0.0124235162921797</v>
       </c>
     </row>
     <row r="25">
@@ -1551,7 +1587,7 @@
         </is>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44960.78841435185</v>
+        <v>44986.69855324074</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1561,32 +1597,34 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>172517-001</t>
+          <t>172855-001 Pb</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.306938166902113</v>
+        <v>0.347609046547564</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00512591913407643</v>
+        <v>0.00652666326077308</v>
       </c>
       <c r="K25" t="n">
-        <v>0.012760919331411</v>
+        <v>0.103591725119551</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0609678440862922</v>
+        <v>0.308739744900462</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0651608210404193</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.00641796952026489</v>
+        <v>0.297962219451301</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O25" t="n">
-        <v>0.322761352385992</v>
+        <v>0.240504153264023</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00170189052680155</v>
+        <v>0.26051011915992</v>
       </c>
     </row>
     <row r="26">
@@ -1599,7 +1637,7 @@
         </is>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44960.79104166666</v>
+        <v>44986.70113425926</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1609,32 +1647,34 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>172508-001</t>
+          <t>172855-002 Pb</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.0179447758801963</v>
+        <v>0.352049693431144</v>
       </c>
       <c r="J26" t="n">
-        <v>0.008616253824979851</v>
+        <v>0.00237713568293386</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0030253430429329</v>
+        <v>0.00595209758797535</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0539363802729121</v>
+        <v>0.357198677988059</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0399152529218535</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0591064869300506</v>
+        <v>0.354524090800081</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O26" t="n">
-        <v>0.321087342056057</v>
+        <v>0.0223927912760062</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00221859229192167</v>
+        <v>0.183012095260529</v>
       </c>
     </row>
     <row r="27">
@@ -1647,7 +1687,7 @@
         </is>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44960.79362268518</v>
+        <v>44986.70376157408</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1657,32 +1697,32 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>172521-004</t>
+          <t>172857-001</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.602088433155428</v>
+        <v>11.6214980463128</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0250630559863118</v>
+        <v>0.732805798870828</v>
       </c>
       <c r="K27" t="n">
-        <v>0.008805843543298979</v>
+        <v>0.0235772727036891</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0834927630274729</v>
+        <v>0.809860901588246</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08915505479139391</v>
+        <v>0.755916625450476</v>
       </c>
       <c r="N27" t="n">
-        <v>0.281059680988784</v>
+        <v>0.0145948977937147</v>
       </c>
       <c r="O27" t="n">
-        <v>0.325974497825254</v>
+        <v>0.391262717225593</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0233438697433122</v>
+        <v>0.103694261298872</v>
       </c>
     </row>
     <row r="28">
@@ -1695,7 +1735,7 @@
         </is>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44960.79626157408</v>
+        <v>44986.7063425926</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1705,32 +1745,34 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>172507-001</t>
+          <t>172858-001</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.90810615352212</v>
+        <v>0.0499174003069366</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0239269407757769</v>
+        <v>0.0119066616562996</v>
       </c>
       <c r="K28" t="n">
-        <v>0.000115126953989215</v>
+        <v>0.0080720471370895</v>
       </c>
       <c r="L28" t="n">
-        <v>0.312227359278931</v>
+        <v>0.0518564927058632</v>
       </c>
       <c r="M28" t="n">
-        <v>0.303712040492164</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.00250159655544294</v>
+        <v>0.0591449658903645</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O28" t="n">
-        <v>0.725543677330531</v>
+        <v>0.335967597098704</v>
       </c>
       <c r="P28" t="n">
-        <v>0.170152782709567</v>
+        <v>0.0321108767489681</v>
       </c>
     </row>
     <row r="29">
@@ -1743,7 +1785,7 @@
         </is>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44960.79884259259</v>
+        <v>44986.70896990741</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1753,32 +1795,34 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>172521-002</t>
+          <t>172865-001</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.165812774086094</v>
+        <v>0.144883485942773</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00597863347739605</v>
+        <v>0.0372901920904517</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00224162579919408</v>
+        <v>0.00541459778710024</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0954734012469923</v>
+        <v>0.957458900155631</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09174493292448339</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.00239369093928357</v>
+        <v>0.969485922038297</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O29" t="n">
-        <v>0.362133017275534</v>
+        <v>0.0542141233601038</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0245295354742731</v>
+        <v>0.00238363247929952</v>
       </c>
     </row>
     <row r="30">
@@ -1791,7 +1835,7 @@
         </is>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44960.80148148148</v>
+        <v>44986.71155092592</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1801,32 +1845,34 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>172528-001</t>
+          <t>172869-001</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.356427958567208</v>
+        <v>0.21713484504357</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0121708533202473</v>
+        <v>0.00779821163361169</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00301718153251209</v>
+        <v>0.00778895838235444</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0451831463685381</v>
+        <v>0.143340277654027</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0479834986929467</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.00944466045579029</v>
+        <v>0.142692476968201</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O30" t="n">
-        <v>0.305096715397664</v>
+        <v>1.54160223305058</v>
       </c>
       <c r="P30" t="n">
-        <v>0.000595183040965876</v>
+        <v>0.00888375618351948</v>
       </c>
     </row>
     <row r="31">
@@ -1839,7 +1885,7 @@
         </is>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44960.8040625</v>
+        <v>44986.71417824074</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1849,32 +1895,34 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>172504-001 mj</t>
+          <t>172875-001</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.0961234734945081</v>
+        <v>0.411102733526598</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0672475819935303</v>
+        <v>0.0699185931055379</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0239733607070623</v>
+        <v>0.0121147828548908</v>
       </c>
       <c r="L31" t="n">
-        <v>0.330036732158108</v>
+        <v>0.0496497557087537</v>
       </c>
       <c r="M31" t="n">
-        <v>0.306546142668892</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.256668027526236</v>
+        <v>0.0604903629856962</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O31" t="n">
-        <v>2.86736015053413</v>
+        <v>0.5453759283441461</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0172787863970334</v>
+        <v>0.429674851497822</v>
       </c>
     </row>
     <row r="32">
@@ -1887,7 +1935,7 @@
         </is>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44960.80668981482</v>
+        <v>44986.71675925926</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1897,32 +1945,34 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>172522-001 mj</t>
+          <t>172882-001</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.328348876443276</v>
+        <v>0.42955678290973</v>
       </c>
       <c r="J32" t="n">
-        <v>0.160394578706478</v>
+        <v>0.0122555699709581</v>
       </c>
       <c r="K32" t="n">
-        <v>0.766333393253847</v>
+        <v>0.0280114127215679</v>
       </c>
       <c r="L32" t="n">
-        <v>0.728901654951335</v>
+        <v>0.14552556399818</v>
       </c>
       <c r="M32" t="n">
-        <v>0.699638288265349</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.489211716198626</v>
+        <v>0.144723021383611</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O32" t="n">
-        <v>3.36695841504898</v>
+        <v>3.38656519885414</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0215708021071516</v>
+        <v>0.00354486344222601</v>
       </c>
     </row>
     <row r="33">
@@ -1935,7 +1985,7 @@
         </is>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44960.81444444445</v>
+        <v>44986.72457175926</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1945,32 +1995,34 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>172524-001 mj</t>
+          <t>172883-001 rush</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.127254203590463</v>
+        <v>0.27345492802054</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0622585802589472</v>
+        <v>0.124623437443308</v>
       </c>
       <c r="K33" t="n">
-        <v>0.20174668215021</v>
+        <v>0.00134190914496983</v>
       </c>
       <c r="L33" t="n">
-        <v>0.539739703137957</v>
+        <v>0.124228197536637</v>
       </c>
       <c r="M33" t="n">
-        <v>0.533917815272551</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.356665760627796</v>
+        <v>0.114288356071541</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O33" t="n">
-        <v>0.894012150642588</v>
+        <v>0.749771274385534</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0436617790911733</v>
+        <v>0.032772066121703</v>
       </c>
     </row>
     <row r="34">
@@ -1983,7 +2035,7 @@
         </is>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44960.81707175926</v>
+        <v>44986.72715277778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1993,32 +2045,36 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>172525-001 mj</t>
+          <t>172872-001 mj</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.342507604901798</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.0340119858420918</v>
+        <v>0.150393030539824</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="K34" t="n">
-        <v>0.364706786013085</v>
+        <v>0.0226190628954769</v>
       </c>
       <c r="L34" t="n">
-        <v>0.540844527597041</v>
+        <v>0.314470270989101</v>
       </c>
       <c r="M34" t="n">
-        <v>0.579552691165498</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.294478488411679</v>
+        <v>0.350464718651984</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O34" t="n">
-        <v>1.27642477197126</v>
+        <v>1.47055583324955</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0171356188103213</v>
+        <v>0.00823960306275877</v>
       </c>
     </row>
     <row r="35">
@@ -2031,7 +2087,7 @@
         </is>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44960.81965277778</v>
+        <v>44986.7297800926</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2041,32 +2097,34 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>172526-001 mj</t>
+          <t>172872-002 mj</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.106900226210673</v>
+        <v>0.00517089702656934</v>
       </c>
       <c r="J35" t="n">
-        <v>0.046120111450133</v>
+        <v>0.00955644521411448</v>
       </c>
       <c r="K35" t="n">
-        <v>0.309583742554579</v>
+        <v>0.008757343100899361</v>
       </c>
       <c r="L35" t="n">
-        <v>0.440578283429108</v>
+        <v>0.450202655493399</v>
       </c>
       <c r="M35" t="n">
-        <v>0.413508883600235</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.251390651316867</v>
+        <v>0.447081309183843</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>&lt;0.000</t>
+        </is>
       </c>
       <c r="O35" t="n">
-        <v>1.27359744876949</v>
+        <v>1.00525652251487</v>
       </c>
       <c r="P35" t="n">
-        <v>0.015265997507684</v>
+        <v>0.00299066294799461</v>
       </c>
     </row>
     <row r="36">
@@ -2079,7 +2137,7 @@
         </is>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44960.82228009259</v>
+        <v>44986.73236111111</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2089,32 +2147,32 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>172526-002 mj</t>
+          <t>172886-001</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.0836053343460685</v>
+        <v>0.10819716513317</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0640441570046478</v>
+        <v>0.040124135672504</v>
       </c>
       <c r="K36" t="n">
-        <v>0.381984447692069</v>
+        <v>0.0262227442483976</v>
       </c>
       <c r="L36" t="n">
-        <v>0.326148786893883</v>
+        <v>0.261751145697424</v>
       </c>
       <c r="M36" t="n">
-        <v>0.320875239856928</v>
+        <v>0.252990409036292</v>
       </c>
       <c r="N36" t="n">
-        <v>0.208326278354283</v>
+        <v>0.00213627444492217</v>
       </c>
       <c r="O36" t="n">
-        <v>2.02818795691332</v>
+        <v>4.4163486243315</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0179621628138795</v>
+        <v>0.00328890677372239</v>
       </c>
     </row>
     <row r="37">
@@ -2127,7 +2185,7 @@
         </is>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44960.82484953704</v>
+        <v>44986.73498842592</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2137,32 +2195,32 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>172526-003 mj</t>
+          <t>172887-001</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.0888098109309421</v>
+        <v>0.188017220103679</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0389293630213506</v>
+        <v>0.0304914888938095</v>
       </c>
       <c r="K37" t="n">
-        <v>0.226362555314561</v>
+        <v>0.0031915973823108</v>
       </c>
       <c r="L37" t="n">
-        <v>2.42660377064773</v>
+        <v>0.0814787143438462</v>
       </c>
       <c r="M37" t="n">
-        <v>2.36541298004236</v>
+        <v>0.0799069563025535</v>
       </c>
       <c r="N37" t="n">
-        <v>0.198986790473257</v>
+        <v>0.000151385322401474</v>
       </c>
       <c r="O37" t="n">
-        <v>5.11331544648548</v>
+        <v>0.428025558532892</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0249601116314376</v>
+        <v>0.0052669568804138</v>
       </c>
     </row>
     <row r="38">
@@ -2175,7 +2233,7 @@
         </is>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44960.82747685185</v>
+        <v>44986.73756944444</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2185,1026 +2243,32 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>172526-004 mj</t>
+          <t>172871-001 mj</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.112104261238506</v>
+        <v>0.902950039194041</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0438216520329955</v>
+        <v>0.183224379633347</v>
       </c>
       <c r="K38" t="n">
-        <v>0.301907607268893</v>
+        <v>2.7751756504892</v>
       </c>
       <c r="L38" t="n">
-        <v>2.12822165620577</v>
+        <v>0.426437588903159</v>
       </c>
       <c r="M38" t="n">
-        <v>2.05989792189116</v>
+        <v>0.429172840841215</v>
       </c>
       <c r="N38" t="n">
-        <v>0.265408009710035</v>
+        <v>0.07003752499213579</v>
       </c>
       <c r="O38" t="n">
-        <v>2.07856547718934</v>
+        <v>1.6697808269139</v>
       </c>
       <c r="P38" t="n">
-        <v>0.008920657961000269</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>060SMPL.d</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>44960.83004629629</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>172531-002</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0.09259460533802651</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0334594542917052</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0149076567028225</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0737354399615644</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.07183550297900421</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>0.591527389855815</v>
-      </c>
-      <c r="P39" t="n">
-        <v>6.48526891767643</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>061SMPL.d</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>44960.83267361111</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>172537-001</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0.582510386192595</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.0159242670057368</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.000528304082817031</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.07738606050354629</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.07118541681774231</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>0.5321824479742699</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.08113692504970769</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>062SMPL.d</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>44960.83525462963</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>172540-001</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>45.2823591245867</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.00476448927821199</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.000917121884660454</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.0613114709873783</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.0623185289199335</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>1.14941372276614</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.0051542650750195</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>063SMPL.d</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>44960.83788194445</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>172531-001</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0.232788628144921</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.0394996133419328</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.047646702658307</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.411416055406118</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.413132110014837</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>25.8197972524108</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.74766183998017</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>066SMPL.d</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>44960.84563657407</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>172532-001</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0.309237871239682</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0567705801195027</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.00333622890305018</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.152515183506195</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.140604252570627</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>1.00707667064113</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.0879491876870708</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>067SMPL.d</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>44960.84827546297</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>172533-001</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0.0440794047034685</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.0375819442285731</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.00338424404224472</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.07312203274652079</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.07784989491606691</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>1.18099155698703</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.0037843839716888</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>068SMPL.d</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>44960.85085648148</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>172534-001</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0.359261451421996</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.0977727387005477</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0185576207163111</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.136012067506039</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.14151682137897</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.0128340576708014</v>
-      </c>
-      <c r="O45" t="n">
-        <v>3.45240288646282</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.0390962553494081</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>069SMPL.d</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>44960.85349537037</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>172536-001</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0.412810972900491</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.14399310800676</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.00100911714644587</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.0869775235161294</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.09197504918371729</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>0.421344247649595</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.008089914924212989</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>070SMPL.d</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>44960.85607638889</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>172539-001</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>7.23775372993129</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0527260832983417</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.00502760110692047</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.173092332033147</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.162152133874001</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>2.61440659824171</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.00398938163392963</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>071SMPL.d</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>44960.85870370371</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>172541-001</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0.148710994991443</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.0598539493944237</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0103909700868516</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.111716576779762</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.108586188772991</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.00306902948249241</v>
-      </c>
-      <c r="O48" t="n">
-        <v>6.96196167121543</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.0400647115821198</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>072SMPL.d</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>44960.86128472222</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>172538-001</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>9.147996018364219</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.199726908762982</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.00791196930415447</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.21202517856775</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.214669235236378</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>0.572130985308778</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.0448092076571996</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>073SMPL.d</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>44960.86390046297</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>172531-003</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0.11388434811093</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.0503628030818834</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.014680050530321</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.0652007275272921</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.0553599845562235</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0.705148678103603</v>
-      </c>
-      <c r="P50" t="n">
-        <v>7.23732234208619</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>074SMPL.d</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>44960.86648148148</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>172513-001 soil</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>8.152675709464321</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.38871643867144</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.917838609909473</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.812850294715512</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.811790214816977</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.498716876948235</v>
-      </c>
-      <c r="O51" t="n">
-        <v>27.2851279852625</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.08784749377086</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>075SMPL.d</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>44960.86912037037</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>172513-001 soil</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>13.998989281419</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6.28888495731002</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.74476225013003</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.90930816607235</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2.18193376274085</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4.07556184762703</v>
-      </c>
-      <c r="O52" t="n">
-        <v>45.6306779521653</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4.99476673691062</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>078SMPL.d</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>44960.87688657407</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>172511-001</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0.374589307389965</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.214166110153372</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.00135201423095118</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.221643996248955</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.231263711090165</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>0.646292156083355</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.0123000325219589</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="b">
-        <v>0</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>079SMPL.d</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>44960.87952546297</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>172515-001</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0.9339987532244159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.0668958238356957</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.00400456972190763</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.136611945822948</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.12187639460257</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>0.225313023091149</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.00460666426516305</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>080SMPL.d</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>44960.88210648148</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>172515-002</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1.02356972066696</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0515389845611136</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.00291060049040595</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.131368844019047</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.138216493484133</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>0.335152090170274</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.0042185212964855</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>081SMPL.d</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>44960.88475694445</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>172515-003</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1.08516096602681</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.0616954775630335</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.000961289745701435</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.15614161089909</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.144116458348476</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>0.123451327120128</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.00368361381475403</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>082SMPL.d</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>44960.88733796297</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>172515-004</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1.0510271486205</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.0636330854958683</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.000958236363364117</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.127747650858011</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.129393883631256</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>0.513397612264752</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.00332219592906857</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="b">
-        <v>0</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>083SMPL.d</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>44960.88996527778</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>172515-005</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0.925416560929069</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.0488331118736902</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>0.140742844001999</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.129413727558265</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>&lt;0.000</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0.321377221573735</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.00335301532555852</v>
+        <v>0.0117876990221377</v>
       </c>
     </row>
   </sheetData>
